--- a/organised_code/Results Trial 2.xlsx
+++ b/organised_code/Results Trial 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ann Marie\Studium\Master\3. Semester\Industrial Project\IndustrialProject\organised_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037B6BAF-7E1C-4D4D-8E3C-0E59B01508DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C291F2E-5856-4DC0-856A-8D0AD917BD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F89DFC77-8F58-471C-AD01-676242773B2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Trial 2</t>
   </si>
@@ -102,19 +102,64 @@
   </si>
   <si>
     <t>Operator 1</t>
+  </si>
+  <si>
+    <t>Trial 1</t>
+  </si>
+  <si>
+    <t>radius': 49.32808303833008}</t>
+  </si>
+  <si>
+    <t>radius': 49.374359130859375}</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>radius': 56.39851379394531</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>d9</t>
+  </si>
+  <si>
+    <t>d11</t>
+  </si>
+  <si>
+    <t>d14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,8 +182,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,113 +519,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451230A7-B0DB-466E-B56E-1429716CCF6F}">
-  <dimension ref="A5:T20"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>5.6367424593872997</v>
+      </c>
+      <c r="C5">
+        <v>48.813442230224602</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>5.7391644396924804</v>
+      </c>
+      <c r="J5">
+        <v>48.813472747802699</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <v>5.30644032573068</v>
+      </c>
+      <c r="Q5">
+        <v>48.7674560546875</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1.49931923307751</v>
+      </c>
+      <c r="C6">
+        <v>49.164817810058501</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>1.2451260674106699</v>
+      </c>
+      <c r="J6">
+        <v>48.859592437744098</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>1.22766276585518</v>
+      </c>
+      <c r="Q6">
+        <v>48.576416015625</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2.49478028491288</v>
+      </c>
+      <c r="C7">
+        <v>48.193019866943303</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>2.5974668546627102</v>
+      </c>
+      <c r="J7">
+        <v>48.5078315734863</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7">
+        <v>2.5221888760248099</v>
+      </c>
+      <c r="Q7">
+        <v>48.672096252441399</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>5.1083020048766903</v>
+      </c>
+      <c r="C8">
+        <v>48.052154541015597</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>4.9677237924557396</v>
+      </c>
+      <c r="J8">
+        <v>48.255485534667898</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>4.9156451815116498</v>
+      </c>
+      <c r="Q8">
+        <v>48.234214782714801</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.96214709488636296</v>
+        <v>2.9071663960097101</v>
       </c>
       <c r="C9">
-        <v>49.520298004150298</v>
+        <v>49.4805908203125</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I9">
-        <v>0.94633116874192902</v>
+        <v>2.3802077242490101</v>
       </c>
       <c r="J9">
-        <v>49.520298004150298</v>
+        <v>49.530113220214801</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -591,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P9">
-        <v>0.99697756121805703</v>
+        <v>2.7839899565219199</v>
       </c>
       <c r="Q9">
-        <v>49.4469604492187</v>
+        <v>49.883396148681598</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
@@ -611,55 +881,55 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>5.7720926337496303</v>
+        <v>1.29689754876031</v>
       </c>
       <c r="C10">
-        <v>49.623683929443303</v>
+        <v>45.379722595214801</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I10">
-        <v>5.8835305882938096</v>
+        <v>1.3483652584910699</v>
       </c>
       <c r="J10">
-        <v>49.461997985839801</v>
+        <v>45.748584747314403</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P10">
-        <v>6.0207696562795601</v>
+        <v>1.3771460695921101</v>
       </c>
       <c r="Q10">
-        <v>49.205066680908203</v>
+        <v>45.427410125732401</v>
       </c>
       <c r="R10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="b">
         <v>1</v>
@@ -667,69 +937,69 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>1.1079089912282201</v>
+        <v>1.41184886365667</v>
       </c>
       <c r="C11">
-        <v>49.423862457275298</v>
+        <v>54.4306030273437</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>1.0596106046923</v>
+        <v>1.4050226700291399</v>
       </c>
       <c r="J11">
-        <v>49.358863830566399</v>
+        <v>54.246444702148402</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P11">
-        <v>1.10899871232837</v>
+        <v>1.3762845411275</v>
       </c>
       <c r="Q11">
-        <v>49.479274749755803</v>
+        <v>54.456626892089801</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
       </c>
       <c r="S11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>2.3972786395601098</v>
+        <v>1.7752559024177099</v>
       </c>
       <c r="C12">
-        <v>49.268001556396399</v>
+        <v>48.716827392578097</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -741,13 +1011,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I12">
-        <v>2.3532359343786098</v>
+        <v>1.8827225989270699</v>
       </c>
       <c r="J12">
-        <v>49.400676727294901</v>
+        <v>48.690773010253899</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -759,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P12">
-        <v>2.47937766471009</v>
+        <v>1.80740096138638</v>
       </c>
       <c r="Q12">
-        <v>49.623683929443303</v>
+        <v>49.091850280761697</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
@@ -779,128 +1049,128 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>4.9145290276439297</v>
+        <v>1.1943354130868</v>
       </c>
       <c r="C13">
-        <v>49.039493560791001</v>
+        <v>48.838436126708899</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I13">
-        <v>5.0266578948170704</v>
+        <v>1.6947305436795901</v>
       </c>
       <c r="J13">
-        <v>49.633098602294901</v>
+        <v>48.402587890625</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
       <c r="M13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P13">
-        <v>4.8211084577992898</v>
+        <v>1.2449258896820401</v>
       </c>
       <c r="Q13">
-        <v>48.8718872070312</v>
+        <v>49.32808303833</v>
       </c>
       <c r="R13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>2.8259280278399799</v>
+        <v>1.88709143950505</v>
       </c>
       <c r="C14">
-        <v>50.301200866699197</v>
+        <v>61.204673767089801</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I14">
-        <v>2.8894618625619999</v>
+        <v>1.84173846358947</v>
       </c>
       <c r="J14">
-        <v>50.263416290283203</v>
+        <v>61.288352966308501</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P14">
-        <v>2.7017960390479598</v>
+        <v>1.7651493119613499</v>
       </c>
       <c r="Q14">
-        <v>50.467575073242102</v>
+        <v>61.163967132568303</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
       </c>
       <c r="S14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>1.4806321840705301</v>
+        <v>3.8134191639887698</v>
       </c>
       <c r="C15">
-        <v>46.075077056884702</v>
+        <v>45.0493965148925</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -909,13 +1179,13 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I15">
-        <v>1.48750704414004</v>
+        <v>2.5680071017122099</v>
       </c>
       <c r="J15">
-        <v>46.157573699951101</v>
+        <v>46.100559234619098</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -927,16 +1197,16 @@
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P15">
-        <v>1.47269504008648</v>
+        <v>3.9784684304487299</v>
       </c>
       <c r="Q15">
-        <v>46.032936096191399</v>
+        <v>45.253810882568303</v>
       </c>
       <c r="R15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="b">
         <v>1</v>
@@ -946,282 +1216,1062 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1.6954384779093401</v>
-      </c>
-      <c r="C16">
-        <v>55.240547180175703</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16">
-        <v>1.56246887784502</v>
-      </c>
-      <c r="J16">
-        <v>55.536788940429602</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16">
-        <v>1.58133105598028</v>
-      </c>
-      <c r="Q16">
-        <v>54.93941116333</v>
-      </c>
-      <c r="R16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" t="b">
-        <v>1</v>
-      </c>
-      <c r="T16" t="b">
-        <v>1</v>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1.6899752476802601</v>
-      </c>
-      <c r="C17">
-        <v>49.352493286132798</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17">
-        <v>2.0258191267274701</v>
-      </c>
-      <c r="J17">
-        <v>50.090019226074197</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17">
-        <v>1.90383513109076</v>
-      </c>
-      <c r="Q17">
-        <v>49.817848205566399</v>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1.2857836062464401</v>
-      </c>
-      <c r="C18">
-        <v>49.256492614746001</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18">
-        <v>1.3013945949236501</v>
-      </c>
-      <c r="J18">
-        <v>49.358894348144503</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" t="b">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O18" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18">
-        <v>1.1984935642101699</v>
-      </c>
-      <c r="Q18">
-        <v>49.363265991210902</v>
-      </c>
-      <c r="R18" t="b">
-        <v>0</v>
-      </c>
-      <c r="S18" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1.8414199341197199</v>
-      </c>
-      <c r="C19">
-        <v>61.844696044921797</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19">
-        <v>1.86468603261543</v>
-      </c>
-      <c r="J19">
-        <v>62.109935760497997</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19">
-        <v>1.8542433490577299</v>
-      </c>
-      <c r="Q19">
-        <v>61.996471405029297</v>
-      </c>
-      <c r="R19" t="b">
-        <v>0</v>
-      </c>
-      <c r="S19" t="b">
-        <v>1</v>
-      </c>
-      <c r="T19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>0.96214709488636296</v>
+      </c>
+      <c r="C21">
+        <v>49.520298004150298</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>0.94633116874192902</v>
+      </c>
+      <c r="J21">
+        <v>49.520298004150298</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21">
+        <v>0.99697756121805703</v>
+      </c>
+      <c r="Q21">
+        <v>49.4469604492187</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>5.7720926337496303</v>
+      </c>
+      <c r="C22">
+        <v>49.623683929443303</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>5.8835305882938096</v>
+      </c>
+      <c r="J22">
+        <v>49.461997985839801</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22">
+        <v>6.0207696562795601</v>
+      </c>
+      <c r="Q22">
+        <v>49.205066680908203</v>
+      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>1.1079089912282201</v>
+      </c>
+      <c r="C23">
+        <v>49.423862457275298</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>1.0596106046923</v>
+      </c>
+      <c r="J23">
+        <v>49.358863830566399</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <v>1.10899871232837</v>
+      </c>
+      <c r="Q23">
+        <v>49.479274749755803</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>2.3972786395601098</v>
+      </c>
+      <c r="C24">
+        <v>49.268001556396399</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24">
+        <v>2.3532359343786098</v>
+      </c>
+      <c r="J24">
+        <v>49.400676727294901</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24">
+        <v>2.47937766471009</v>
+      </c>
+      <c r="Q24">
+        <v>49.623683929443303</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>4.9145290276439297</v>
+      </c>
+      <c r="C25">
+        <v>49.039493560791001</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25">
+        <v>5.0266578948170704</v>
+      </c>
+      <c r="J25">
+        <v>49.633098602294901</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25">
+        <v>4.8211084577992898</v>
+      </c>
+      <c r="Q25">
+        <v>48.8718872070312</v>
+      </c>
+      <c r="R25" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>2.8259280278399799</v>
+      </c>
+      <c r="C26">
+        <v>50.301200866699197</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26">
+        <v>2.8894618625619999</v>
+      </c>
+      <c r="J26">
+        <v>50.263416290283203</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26">
+        <v>2.7017960390479598</v>
+      </c>
+      <c r="Q26">
+        <v>50.467575073242102</v>
+      </c>
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>1.4806321840705301</v>
+      </c>
+      <c r="C27">
+        <v>46.075077056884702</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27">
+        <v>1.48750704414004</v>
+      </c>
+      <c r="J27">
+        <v>46.157573699951101</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>14</v>
+      </c>
+      <c r="P27">
+        <v>1.47269504008648</v>
+      </c>
+      <c r="Q27">
+        <v>46.032936096191399</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>1.6954384779093401</v>
+      </c>
+      <c r="C28">
+        <v>55.240547180175703</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28">
+        <v>1.56246887784502</v>
+      </c>
+      <c r="J28">
+        <v>55.536788940429602</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28">
+        <v>1.58133105598028</v>
+      </c>
+      <c r="Q28">
+        <v>54.93941116333</v>
+      </c>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>1.6899752476802601</v>
+      </c>
+      <c r="C29">
+        <v>49.352493286132798</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>2.0258191267274701</v>
+      </c>
+      <c r="J29">
+        <v>50.090019226074197</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29">
+        <v>1.90383513109076</v>
+      </c>
+      <c r="Q29">
+        <v>49.817848205566399</v>
+      </c>
+      <c r="R29" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29" t="b">
+        <v>0</v>
+      </c>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>1.2857836062464401</v>
+      </c>
+      <c r="C30">
+        <v>49.256492614746001</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30">
+        <v>1.3013945949236501</v>
+      </c>
+      <c r="J30">
+        <v>49.358894348144503</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30">
+        <v>1.1984935642101699</v>
+      </c>
+      <c r="Q30">
+        <v>49.363265991210902</v>
+      </c>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>1.8414199341197199</v>
+      </c>
+      <c r="C31">
+        <v>61.844696044921797</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>1.86468603261543</v>
+      </c>
+      <c r="J31">
+        <v>62.109935760497997</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31">
+        <v>1.8542433490577299</v>
+      </c>
+      <c r="Q31">
+        <v>61.996471405029297</v>
+      </c>
+      <c r="R31" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B32">
         <v>2.8490750448133402</v>
       </c>
-      <c r="C20">
+      <c r="C32">
         <v>45.691318511962798</v>
       </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
         <v>19</v>
       </c>
-      <c r="I20">
+      <c r="I32">
         <v>2.9401243296531501</v>
       </c>
-      <c r="J20">
+      <c r="J32">
         <v>45.659309387207003</v>
       </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
         <v>19</v>
       </c>
-      <c r="P20">
+      <c r="P32">
         <v>2.9225465211091</v>
       </c>
-      <c r="Q20">
+      <c r="Q32">
         <v>46.035408020019503</v>
       </c>
-      <c r="R20" t="b">
-        <v>1</v>
-      </c>
-      <c r="S20" t="b">
-        <v>1</v>
-      </c>
-      <c r="T20" t="b">
+      <c r="R32" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>2.6392099711344201</v>
+      </c>
+      <c r="C41">
+        <v>56.147228240966797</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <v>4.2656949747142701</v>
+      </c>
+      <c r="C42">
+        <v>56.51558303833</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>7.9908593883127796</v>
+      </c>
+      <c r="C43">
+        <v>55.479152679443303</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>2.38332806364645</v>
+      </c>
+      <c r="C44">
+        <v>55.731662750244098</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <v>6.3740661432258197</v>
+      </c>
+      <c r="C45">
+        <v>55.915802001953097</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46">
+        <v>4.27825962573126</v>
+      </c>
+      <c r="C46">
+        <v>55.774360656738203</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>4.0129790345168797</v>
+      </c>
+      <c r="C47">
+        <v>56.078155517578097</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48">
+        <v>3.6645664805828</v>
+      </c>
+      <c r="C48">
+        <v>70.783218383789006</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49">
+        <v>2.78085976855149</v>
+      </c>
+      <c r="C49">
+        <v>51.381370544433501</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>3.8381942675138601</v>
+      </c>
+      <c r="C50">
+        <v>49.3890991210937</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51">
+        <v>3.3391926994177701</v>
+      </c>
+      <c r="C51">
+        <v>55.8471870422363</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>3.4761586751854798</v>
+      </c>
+      <c r="C52">
+        <v>55.701595306396399</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>7.5711775675677204</v>
+      </c>
+      <c r="C53">
+        <v>55.740100860595703</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54">
+        <v>2.5619030594916401</v>
+      </c>
+      <c r="C54">
+        <v>70.114288330078097</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="b">
         <v>1</v>
       </c>
     </row>
